--- a/src/test/resources/stok.xlsx
+++ b/src/test/resources/stok.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{64671A26-6EEA-9345-BFE2-77BE3BA0BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77A38F3F-E19F-4741-9C84-0FA55E0D563D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{64671A26-6EEA-9345-BFE2-77BE3BA0BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{579C4039-F687-4D4F-BBED-C3B1F81BA3B3}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>urun adi</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>cokoprens</t>
+  </si>
+  <si>
+    <t>elma</t>
+  </si>
+  <si>
+    <t>armut</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -419,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -427,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,6 +482,22 @@
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
